--- a/public/suivi-todolist.xlsx
+++ b/public/suivi-todolist.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t xml:space="preserve">Qui</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t xml:space="preserve">CRUD d’ ajout de dons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandresy</t>
   </si>
   <si>
     <t xml:space="preserve">estimation total</t>
@@ -458,59 +461,52 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="11" createdVersion="3">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="6" createdVersion="3">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I201" sheet="liste des taches"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Module" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
-        <s v="Login"/>
-        <s v="Message"/>
+      <sharedItems containsBlank="1" count="5">
+        <s v="Base de données"/>
+        <s v="Page  d  ‘ajout"/>
+        <s v="Page d’accueil"/>
+        <s v="Page fonction"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Nom page" numFmtId="0">
       <sharedItems containsBlank="1" count="6">
-        <s v="fonctions.php"/>
-        <s v="index.php"/>
-        <s v="messages.php"/>
-        <s v="traitement-login.php"/>
-        <s v="Traitement-messages.php"/>
+        <s v="accueil.php"/>
+        <s v="besoin.php"/>
+        <s v="bngrc.sql"/>
+        <s v="fonction.php"/>
+        <s v="insert.sql"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Description" numFmtId="0">
-      <sharedItems containsBlank="1" count="12">
-        <s v="bouton rafraichir "/>
-        <s v="checkLogin"/>
-        <s v="Création html"/>
-        <s v="données test"/>
-        <s v="fonction envoyer msg"/>
-        <s v="fonction getAll messages"/>
-        <s v="fonctionnement login"/>
-        <s v="lu et non lu"/>
-        <s v="table login"/>
-        <s v="table stockage message"/>
-        <s v="verification de l’envoie "/>
+      <sharedItems containsBlank="1" count="7">
+        <s v="CRUD d’ ajout de dons"/>
+        <s v="CRUD de besoin par ville"/>
+        <s v="fonction getsinistreparville"/>
+        <s v="Insertion des données initiales"/>
+        <s v="Postgresql:création des tables "/>
+        <s v="Tableau de bord:listes villes"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
-        <s v="Affichage"/>
+      <sharedItems containsBlank="1" count="3">
         <s v="Base"/>
-        <s v="Code intégration"/>
-        <s v="Fonction"/>
+        <s v="Page php"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Estimation" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="5" maxValue="30" count="5">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="5" maxValue="10" count="3">
         <n v="5"/>
         <n v="10"/>
-        <n v="15"/>
-        <n v="30"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -532,8 +528,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Status" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
-        <s v="Mbola tsy mety le include"/>
+      <sharedItems containsBlank="1" count="2">
         <s v="ok"/>
         <m/>
       </sharedItems>
@@ -543,13 +538,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="11">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="6">
   <r>
     <x v="0"/>
-    <x v="1"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="3"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -557,113 +552,58 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="3"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
     <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="9"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="10"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -843,7 +783,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -851,7 +791,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -859,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="n">
-        <v>155</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -878,10 +818,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD13"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -890,11 +830,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="23.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="9.34"/>
   </cols>
   <sheetData>
@@ -969,6 +909,9 @@
       <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -1012,7 +955,9 @@
       <c r="H5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -1024,8 +969,6 @@
       <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="I6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -1044,34 +987,11 @@
         <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="XFD8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1106,19 +1026,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1149,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/public/suivi-todolist.xlsx
+++ b/public/suivi-todolist.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t xml:space="preserve">Qui</t>
   </si>
@@ -128,6 +128,54 @@
   </si>
   <si>
     <t xml:space="preserve">css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creation table:achats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page Achat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achat.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filtre ville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calcul avec frais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fonction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">message erreur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simulation.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bouton simuler(fonction Ajax):resultat sans save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page Ajax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bouton valider(fonction validation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page recapitulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recapitulation.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bouton actualiser(AJAX):besoin total,satisfait,reste=&gt;san actualiser la page</t>
   </si>
   <si>
     <t xml:space="preserve">estimation total</t>
@@ -757,7 +805,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -833,15 +881,15 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="47.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.13"/>
@@ -1037,14 +1085,119 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E8" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1066,7 +1219,7 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1081,29 +1234,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <f aca="false">SUM('liste des taches'!E2:E329)</f>
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1" t="n">
         <f aca="false">SUM('liste des taches'!F2:F327)</f>
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="n">
         <f aca="false">SUM('liste des taches'!G2:G329)</f>
@@ -1115,7 +1268,7 @@
       </c>
       <c r="E2" s="13" t="n">
         <f aca="false">((B2+C2)-A2)/A2</f>
-        <v>0.106666666666667</v>
+        <v>-0.252631578947368</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1124,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1145,7 +1298,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
